--- a/Ecov_study/recruitment_functions/paper/sigmaR_assessment_estimates.xlsx
+++ b/Ecov_study/recruitment_functions/paper/sigmaR_assessment_estimates.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sigmaR_all_info" sheetId="1" r:id="rId1"/>
+    <sheet name="table_for_paper" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>Stock</t>
   </si>
@@ -162,7 +163,19 @@
     <t>max</t>
   </si>
   <si>
-    <t>any other stocks?</t>
+    <t>Bluefish</t>
+  </si>
+  <si>
+    <t>Toni.Wood</t>
+  </si>
+  <si>
+    <t>Stock &amp; SRR &amp; NAA\_RE &amp; RE\_Cor &amp; \sigma_R &amp; \sigma_{NAA} &amp; \rho_{age} &amp; \rho_{year} \\</t>
+  </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t>for latex:</t>
   </si>
 </sst>
 </file>
@@ -173,13 +186,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,6 +209,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,30 +338,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,11 +861,11 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <f>LN(J5)</f>
+        <f t="shared" ref="F5:G8" si="1">LN(J5)</f>
         <v>5.7325066619269352E-2</v>
       </c>
       <c r="G5">
-        <f>LN(K5)</f>
+        <f t="shared" si="1"/>
         <v>-1.0613165039244128</v>
       </c>
       <c r="H5" t="s">
@@ -879,11 +904,11 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <f>LN(J6)</f>
+        <f t="shared" si="1"/>
         <v>-0.39008400606986199</v>
       </c>
       <c r="G6">
-        <f>LN(K6)</f>
+        <f t="shared" si="1"/>
         <v>-1.3943265328171548</v>
       </c>
       <c r="H6" t="s">
@@ -922,11 +947,11 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <f>LN(J7)</f>
+        <f t="shared" si="1"/>
         <v>-0.30516738679280048</v>
       </c>
       <c r="G7">
-        <f>LN(K7)</f>
+        <f t="shared" si="1"/>
         <v>-0.21691300156357363</v>
       </c>
       <c r="J7" s="8">
@@ -959,11 +984,11 @@
         <v>41</v>
       </c>
       <c r="F8">
-        <f>LN(J8)</f>
+        <f t="shared" si="1"/>
         <v>-0.67727383140365516</v>
       </c>
       <c r="G8">
-        <f>LN(K8)</f>
+        <f t="shared" si="1"/>
         <v>-0.51751461191678738</v>
       </c>
       <c r="J8" s="8">
@@ -1008,11 +1033,11 @@
         <v>0.85074039999999995</v>
       </c>
       <c r="J9" s="8">
-        <f>EXP(F9)</f>
+        <f t="shared" ref="J9:K11" si="2">EXP(F9)</f>
         <v>0.34100231938711739</v>
       </c>
       <c r="K9" s="9">
-        <f>EXP(G9)</f>
+        <f t="shared" si="2"/>
         <v>0.18913372016350102</v>
       </c>
       <c r="L9" s="9">
@@ -1053,11 +1078,11 @@
         <v>-0.1124452</v>
       </c>
       <c r="J10" s="8">
-        <f>EXP(F10)</f>
+        <f t="shared" si="2"/>
         <v>0.92030305092593812</v>
       </c>
       <c r="K10" s="9">
-        <f>EXP(G10)</f>
+        <f t="shared" si="2"/>
         <v>0.49439492394148993</v>
       </c>
       <c r="L10" s="9">
@@ -1112,17 +1137,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
+      <c r="C12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.2202461</v>
+      </c>
+      <c r="G12" s="28">
+        <v>-0.66280749999999999</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="8">
+        <f>EXP(F12)</f>
+        <v>1.2463834278083235</v>
+      </c>
+      <c r="K12" s="22">
+        <f>EXP(G12)</f>
+        <v>0.51540230939087373</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1167,68 +1223,540 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="24">
+        <v>-1.1017479999999999</v>
+      </c>
+      <c r="G14" s="24">
+        <v>-1.8554580000000001</v>
+      </c>
+      <c r="H14" s="24">
+        <v>-0.19975290000000001</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1.0121770999999999</v>
+      </c>
+      <c r="J14" s="8">
+        <f>EXP(F14)</f>
+        <v>0.33228973329205674</v>
+      </c>
+      <c r="K14" s="22">
+        <f>EXP(G14)</f>
+        <v>0.15638130363380229</v>
+      </c>
+      <c r="L14" s="9">
+        <f>-1+2/(1+EXP(-2*H14))</f>
+        <v>-0.19713783492614612</v>
+      </c>
+      <c r="M14" s="10">
+        <f>-1+2/(1+EXP(-2*I14))</f>
+        <v>0.76666098525757054</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="25"/>
       <c r="I17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J17" s="12">
-        <f>AVERAGE(J2:J13)</f>
-        <v>0.79018323662452794</v>
+        <f>AVERAGE(J2:J14)</f>
+        <v>0.79005298184386064</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="14">
-        <f>AVERAGE(M2:M13)</f>
-        <v>0.25831675816034055</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+        <f>AVERAGE(M2:M14)</f>
+        <v>0.27754964038625513</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="25"/>
       <c r="I18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="16">
-        <f>MIN(J2:J13)</f>
+        <f>MIN(J2:J14)</f>
         <v>0.30043465587018048</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
       <c r="M18" s="18">
-        <f>MIN(M2:M13)</f>
+        <f>MIN(M2:M14)</f>
         <v>-0.11197366850935098</v>
       </c>
     </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I19" s="15" t="s">
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="25"/>
+      <c r="I19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="16">
-        <f>MAX(J2:J13)</f>
+      <c r="J19" s="26">
+        <f>MAX(J2:J14)</f>
         <v>1.637888316071874</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18">
-        <f>MAX(M2:M13)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="27">
+        <f>MAX(M2:M14)</f>
+        <v>0.76666098525757054</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="25"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.5703125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1.637888316071874</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.37738020439758047</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.15208234860860959</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0.27767503558577333</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1.3999999487303028</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1.2463834278083235</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.51540230939087373</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.92030305092593812</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.49439492394148993</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.49642079860287658</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-0.11197366850935098</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G7" s="22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.248</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.59655997360019086</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.5148273382842028</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.28750995306139066</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G11" s="22">
+        <v>-0.128</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.34100231938711739</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.18913372016350102</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.62873632259960566</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.69145607392962005</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.33228973329205674</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.15638130363380229</v>
+      </c>
+      <c r="G13" s="22">
+        <v>-0.19713783492614612</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.76666098525757054</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.30043465587018048</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.25261845792035081</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.17832689875770358</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H14">
+    <sortCondition descending="1" ref="E2:E14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ecov_study/recruitment_functions/paper/sigmaR_assessment_estimates.xlsx
+++ b/Ecov_study/recruitment_functions/paper/sigmaR_assessment_estimates.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>Stock</t>
   </si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Amanda.Hart</t>
-  </si>
-  <si>
-    <t>2dar3</t>
-  </si>
-  <si>
-    <t>2dar4</t>
   </si>
   <si>
     <t>trans_NAA_rho_age</t>
@@ -338,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -360,7 +354,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,6 +368,24 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +669,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>24</v>
@@ -901,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -981,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -1033,7 +1044,7 @@
         <v>0.85074039999999995</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:K11" si="2">EXP(F9)</f>
+        <f t="shared" ref="J9:K10" si="2">EXP(F9)</f>
         <v>0.34100231938711739</v>
       </c>
       <c r="K9" s="9">
@@ -1137,46 +1148,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>0.2202461</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>-0.66280749999999999</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="8">
         <f>EXP(F12)</f>
         <v>1.2463834278083235</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <f>EXP(G12)</f>
         <v>0.51540230939087373</v>
       </c>
-      <c r="L12" s="29">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
+      <c r="L12" s="28">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1224,10 +1235,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1238,23 +1249,23 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>-1.1017479999999999</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>-1.8554580000000001</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>-0.19975290000000001</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>1.0121770999999999</v>
       </c>
       <c r="J14" s="8">
         <f>EXP(F14)</f>
         <v>0.33228973329205674</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <f>EXP(G14)</f>
         <v>0.15638130363380229</v>
       </c>
@@ -1271,17 +1282,17 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17" s="12">
         <f>AVERAGE(J2:J14)</f>
@@ -1295,9 +1306,9 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18" s="16">
         <f>MIN(J2:J14)</f>
@@ -1311,23 +1322,23 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="25"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="26">
+        <v>44</v>
+      </c>
+      <c r="J19" s="25">
         <f>MAX(J2:J14)</f>
         <v>1.637888316071874</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
-      <c r="M19" s="27">
+      <c r="M19" s="26">
         <f>MAX(M2:M14)</f>
         <v>0.76666098525757054</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="25"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
@@ -1335,16 +1346,16 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1357,401 +1368,401 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" style="23" customWidth="1"/>
+    <col min="4" max="9" width="11.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="31">
         <v>1.637888316071874</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="31">
         <v>0.37738020439758047</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="31">
         <v>0.15208234860860959</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="31">
         <v>0.27767503558577333</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="21"/>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="31">
         <v>1.3999999487303028</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22"/>
+      <c r="F3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21"/>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="31">
         <v>1.2463834278083235</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="31">
         <v>0.51540230939087373</v>
       </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22"/>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21"/>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="31">
         <v>1.0589999999999999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="31">
         <v>0.34599999999999997</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="31">
         <v>0.32</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="31">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="31">
         <v>0.92030305092593812</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="31">
         <v>0.49439492394148993</v>
       </c>
-      <c r="G6" s="22">
-        <v>0.49642079860287658</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="31">
+        <v>0.49642079860287702</v>
+      </c>
+      <c r="H6" s="31">
         <v>-0.11197366850935098</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="B7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="31">
         <v>0.80500000000000005</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="31">
         <v>0.25800000000000001</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="31">
         <v>0.67700000000000005</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="31">
         <v>0.248</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="31">
         <v>0.33900000000000002</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="31">
         <v>0.7</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="31">
         <v>0.59655997360019086</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22"/>
+      <c r="F9" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="31">
         <v>0.5148273382842028</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="31">
         <v>0.28750995306139066</v>
       </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22"/>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="B11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="31">
         <v>0.59599999999999997</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="31">
         <v>-0.128</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="31">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="31">
         <v>0.34100231938711739</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="31">
         <v>0.18913372016350102</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="31">
         <v>0.62873632259960566</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="31">
         <v>0.69145607392962005</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="31">
         <v>0.33228973329205674</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="31">
         <v>0.15638130363380229</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="31">
         <v>-0.19713783492614612</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="31">
         <v>0.76666098525757054</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="31">
         <v>0.30043465587018048</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="31">
         <v>0.25261845792035081</v>
       </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
         <v>0.17832689875770358</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
     </row>
   </sheetData>
   <sortState ref="A2:H14">
